--- a/Documentation/Evolution sites.xlsx
+++ b/Documentation/Evolution sites.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Nombre de généralistes inscrits sur Paris (intra-muros)</t>
   </si>
@@ -28,9 +28,6 @@
   </si>
   <si>
     <t>KelDoc</t>
-  </si>
-  <si>
-    <t>SansRDV</t>
   </si>
   <si>
     <t>RendezVousFacile</t>
@@ -127,24 +124,30 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$A$4</c:f>
+              <c:f>Feuil1!$A$4:$A$5</c:f>
               <c:numCache>
                 <c:formatCode>dd/mm/yyyy</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>41790</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$B$4</c:f>
+              <c:f>Feuil1!$B$4:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -169,31 +172,37 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$A$4</c:f>
+              <c:f>Feuil1!$A$4:$A$5</c:f>
               <c:numCache>
                 <c:formatCode>dd/mm/yyyy</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>41790</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$C$4</c:f>
+              <c:f>Feuil1!$C$4:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="3"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
@@ -201,7 +210,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SansRDV</c:v>
+                  <c:v>RendezVousFacile</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -211,65 +220,29 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$A$4</c:f>
+              <c:f>Feuil1!$A$4:$A$5</c:f>
               <c:numCache>
                 <c:formatCode>dd/mm/yyyy</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>41790</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$D$4</c:f>
+              <c:f>Feuil1!$D$4:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Feuil1!$E$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>RendezVousFacile</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Feuil1!$A$4</c:f>
-              <c:numCache>
-                <c:formatCode>dd/mm/yyyy</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>41790</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Feuil1!$E$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
@@ -277,24 +250,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="57338880"/>
-        <c:axId val="61620992"/>
+        <c:axId val="123794176"/>
+        <c:axId val="123795712"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="57338880"/>
+        <c:axId val="123794176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd/mm/yyyy" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61620992"/>
+        <c:crossAx val="123795712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="61620992"/>
+        <c:axId val="123795712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -302,7 +275,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57338880"/>
+        <c:crossAx val="123794176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -315,7 +288,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -325,13 +298,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
@@ -641,24 +614,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75">
+    <row r="1" spans="1:4" ht="18.75">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1">
+    <row r="3" spans="1:4" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -671,11 +644,8 @@
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:4">
       <c r="A4" s="3">
         <v>41790</v>
       </c>
@@ -686,9 +656,20 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3">
+        <v>41812</v>
+      </c>
+      <c r="B5">
+        <v>46</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
         <v>12</v>
       </c>
     </row>
